--- a/xlsx/西罗马帝国_intext.xlsx
+++ b/xlsx/西罗马帝国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="582">
   <si>
     <t>西罗马帝国</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>政策_政策_政治_西罗马帝国</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD</t>
   </si>
   <si>
-    <t>米蘭</t>
+    <t>米兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%87%E7%B4%8D</t>
   </si>
   <si>
-    <t>拉文納</t>
+    <t>拉文纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%A5%9E%E6%95%99</t>
@@ -95,31 +95,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>羅馬皇帝</t>
+    <t>罗马皇帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%AB%BE%E9%87%8C%E7%83%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>霍諾里烏斯</t>
+    <t>霍诺里乌斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%85%95%E8%B7%AF%E6%96%AF%C2%B7%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD</t>
   </si>
   <si>
-    <t>羅慕路斯·奧古斯都</t>
+    <t>罗慕路斯·奥古斯都</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>立法部門</t>
+    <t>立法部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%83%E8%80%81%E9%99%A2</t>
   </si>
   <si>
-    <t>羅馬元老院</t>
+    <t>罗马元老院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%93%A5%E5%BE%B7%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>東哥德王國</t>
+    <t>东哥德王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>東羅馬帝國</t>
+    <t>东罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%8E%86%E5%8F%B2</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>義大利文藝復興</t>
+    <t>义大利文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%88%98%E4%BA%89</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>意大利統一</t>
+    <t>意大利统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B_(1861%E2%80%931946)</t>
   </si>
   <si>
-    <t>意大利王國 (1861–1946)</t>
+    <t>意大利王国 (1861–1946)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%B3%95%E8%A5%BF%E6%96%AF%E5%85%9A</t>
@@ -311,19 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>拜占庭帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E8%AB%BE_(%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B)</t>
   </si>
   <si>
-    <t>芝諾 (羅馬帝國)</t>
+    <t>芝诺 (罗马帝国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A4%A7%E5%B8%9D</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A7%E5%A4%9A%E8%A5%BF%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>狄奧多西一世</t>
+    <t>狄奥多西一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%A2%E6%96%AF</t>
@@ -353,31 +347,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A5%A7%E5%A4%9A%E9%87%8C%E5%85%8B%E5%A4%A7%E5%B8%9D</t>
   </si>
   <si>
-    <t>迪奧多里克大帝</t>
+    <t>迪奥多里克大帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%A4%9A%E4%BA%9E%E5%A1%9E</t>
   </si>
   <si>
-    <t>奧多亞塞</t>
+    <t>奥多亚塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E5%90%89%E6%9C%AC</t>
   </si>
   <si>
-    <t>愛德華·吉本</t>
+    <t>爱德华·吉本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>古代歐洲</t>
+    <t>古代欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>中古時代</t>
+    <t>中古时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%E5%A4%A7%E5%B8%9D</t>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
+    <t>神圣罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E4%B8%89%E5%A4%B4%E5%90%8C%E7%9B%9F</t>
@@ -401,27 +395,24 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%AE%89%E6%9D%B1%E5%B0%BC</t>
   </si>
   <si>
-    <t>馬克·安東尼</t>
+    <t>马克·安东尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8B%E5%A4%A7%E7%B6%AD</t>
   </si>
   <si>
-    <t>屋大維</t>
+    <t>屋大维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BF%85%E9%81%94</t>
   </si>
   <si>
-    <t>雷必達</t>
+    <t>雷必达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
   </si>
   <si>
-    <t>拉丁语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%AF%A5%E4%BA%9A%E8%A1%8C%E7%9C%81</t>
   </si>
   <si>
@@ -437,19 +428,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
+    <t>阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%8F%90%E5%B0%BC%E4%BA%9A%E8%A1%8C%E7%9C%81</t>
@@ -491,13 +482,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E4%BA%BA</t>
   </si>
   <si>
-    <t>凱爾特人</t>
+    <t>凯尔特人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%9E%E5%88%A9%E5%8A%A0_(%E7%BE%85%E9%A6%AC%E8%A1%8C%E7%9C%81)</t>
   </si>
   <si>
-    <t>阿非利加 (羅馬行省)</t>
+    <t>阿非利加 (罗马行省)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -515,19 +506,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%A7</t>
   </si>
   <si>
-    <t>高盧</t>
+    <t>高卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B</t>
   </si>
   <si>
-    <t>不列顛</t>
+    <t>不列颠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90</t>
   </si>
   <si>
-    <t>中歐</t>
+    <t>中欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
@@ -539,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E8%A5%BF%E7%B1%B3%E5%AE%89</t>
   </si>
   <si>
-    <t>馬克西米安</t>
+    <t>马克西米安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
@@ -557,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9E%E7%B4%B0%E4%BA%9E</t>
   </si>
   <si>
-    <t>小亞細亞</t>
+    <t>小亚细亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E8%BB%8D%E5%9C%98</t>
   </si>
   <si>
-    <t>羅馬軍團</t>
+    <t>罗马军团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%88%98%E4%BA%89</t>
@@ -635,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A5%BF</t>
   </si>
   <si>
-    <t>尼祿</t>
+    <t>尼禄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%AF%86%E5%96%84</t>
   </si>
   <si>
-    <t>圖密善</t>
+    <t>图密善</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%B9%8C%E6%96%AF%C2%B7%E8%8B%8F%E5%B0%94%E7%9A%AE%E5%9F%BA%E4%B9%8C%E6%96%AF%C2%B7%E5%8A%A0%E5%B0%94%E5%B7%B4</t>
@@ -653,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%91%A9%E5%85%8B%E9%87%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>達摩克里斯</t>
+    <t>达摩克里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E4%BA%BA</t>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%8C%B5%E6%B2%B3</t>
   </si>
   <si>
-    <t>萊茵河</t>
+    <t>莱茵河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%91%99%E6%B2%B3</t>
@@ -677,25 +668,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E9%A0%93%E5%A0%A1%E6%A3%AE%E6%9E%97%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>條頓堡森林戰役</t>
+    <t>条顿堡森林战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%81%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>安息帝國</t>
+    <t>安息帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>義大利半島</t>
+    <t>义大利半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%8B%89%E7%9C%9F</t>
   </si>
   <si>
-    <t>圖拉真</t>
+    <t>图拉真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E8%89%AF</t>
@@ -707,19 +698,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%96%E7%B4%80%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>三世紀危機</t>
+    <t>三世纪危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E5%A1%9E%E7%B6%AD%E9%AD%AF</t>
   </si>
   <si>
-    <t>亞歷山大·塞維魯</t>
+    <t>亚历山大·塞维鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%8F%8A%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>薩珊王朝</t>
+    <t>萨珊王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%8F%90%E4%BA%9A</t>
@@ -749,13 +740,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%B4%9B%E5%B0%BC%E5%8A%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>薩洛尼努斯</t>
+    <t>萨洛尼努斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%A7%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>高盧帝國</t>
+    <t>高卢帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99_(%E7%BD%97%E9%A9%AC%E8%A1%8C%E7%9C%81)</t>
@@ -767,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>不列顛尼亞</t>
+    <t>不列颠尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E8%80%81%E9%99%A2</t>
@@ -809,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E6%8F%90%E7%83%8F%E6%96%AF%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>君士坦提烏斯一世</t>
+    <t>君士坦提乌斯一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E5%B0%94</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%8C%AB%E5%B0%BC</t>
   </si>
   <si>
-    <t>李錫尼</t>
+    <t>李锡尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E4%BA%8C%E4%B8%96</t>
@@ -839,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E6%8F%90%E7%83%8F%E6%96%AF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>君士坦提烏斯二世</t>
+    <t>君士坦提乌斯二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AF%BA%E5%B0%BC%E4%BA%9A</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%80%AB%E6%8F%90%E5%B0%BC%E5%AE%89%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>瓦倫提尼安一世</t>
+    <t>瓦伦提尼安一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E4%BC%A6%E6%96%AF</t>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BE%B7%E9%87%8C%E5%AE%89%E5%A0%A1%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>阿德里安堡戰役</t>
+    <t>阿德里安堡战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E6%8F%90%E5%AE%89</t>
@@ -905,7 +896,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E7%B6%AD%E7%83%8F%E6%96%AF%C2%B7%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD%C2%B7%E9%9C%8D%E8%AB%BE%E7%95%99</t>
   </si>
   <si>
-    <t>弗拉維烏斯·奧古斯都·霍諾留</t>
+    <t>弗拉维乌斯·奥古斯都·霍诺留</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC</t>
@@ -929,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>羅馬</t>
+    <t>罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E4%BC%A6%E4%B8%81%E5%B0%BC%E5%AE%89%E4%B8%89%E4%B8%96</t>
@@ -965,13 +956,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%BC%8F%E4%BE%9D</t>
   </si>
   <si>
-    <t>薩伏依</t>
+    <t>萨伏依</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%96%A9%E9%87%8C%E5%85%8B</t>
   </si>
   <si>
-    <t>蓋薩里克</t>
+    <t>盖萨里克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%A4%AA%E5%9F%BA</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%9A%86%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>沙隆戰役</t>
+    <t>沙隆战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%91%9E%E6%96%AF%E7%89%B9</t>
@@ -995,39 +986,36 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E9%A6%AC%E6%8F%90%E4%BA%9E</t>
   </si>
   <si>
-    <t>達爾馬提亞</t>
+    <t>达尔马提亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%93%A5%E5%BE%B7%E4%BA%BA</t>
   </si>
   <si>
-    <t>東哥德人</t>
+    <t>东哥德人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A7%E5%A4%9A%E9%87%8C%E5%85%8B%E5%A4%A7%E5%B8%9D</t>
   </si>
   <si>
-    <t>狄奧多里克大帝</t>
+    <t>狄奥多里克大帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BB%B7%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>拜占廷帝國</t>
+    <t>拜占廷帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%88%A9%E6%92%92%E7%95%99</t>
   </si>
   <si>
-    <t>貝利撒留</t>
+    <t>贝利撒留</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E5%B7%B4%E5%BA%95%E4%BA%BA</t>
   </si>
   <si>
-    <t>倫巴底人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%A3%AB%E4%B8%81%E5%B0%BC</t>
   </si>
   <si>
@@ -1037,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>法蘭克人</t>
+    <t>法兰克人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
@@ -1049,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>天主教會</t>
+    <t>天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>羅曼語族</t>
+    <t>罗曼语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95%E5%A4%A7%E5%85%A8</t>
@@ -1067,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
@@ -1079,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>文學</t>
+    <t>文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E6%B3%A5%E5%9C%9F</t>
@@ -1097,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E7%83%8F%E6%95%99%E6%B4%BE</t>
   </si>
   <si>
-    <t>阿里烏教派</t>
+    <t>阿里乌教派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -1109,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E6%B3%95%E7%B3%BB</t>
@@ -1127,61 +1115,61 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E8%AA%9E</t>
   </si>
   <si>
-    <t>死語</t>
+    <t>死语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>凱爾特語族</t>
+    <t>凯尔特语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
+    <t>加泰罗尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>奧克語</t>
+    <t>奥克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E4%BB%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅曼什語</t>
+    <t>罗曼什语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>日耳曼語族</t>
+    <t>日耳曼语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -1199,61 +1187,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E6%96%87</t>
   </si>
   <si>
-    <t>荷蘭文</t>
+    <t>荷兰文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E8%AA%9E</t>
   </si>
   <si>
-    <t>凱爾特語</t>
+    <t>凯尔特语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞語</t>
+    <t>阿尔巴尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>波蘭語</t>
+    <t>波兰语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>捷克語</t>
+    <t>捷克语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>印歐民族</t>
+    <t>印欧民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>匈牙利語</t>
+    <t>匈牙利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%95%B8%E5%AD%97</t>
   </si>
   <si>
-    <t>羅馬數字</t>
+    <t>罗马数字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%95%B8%E5%AD%97</t>
   </si>
   <si>
-    <t>阿拉伯數字</t>
+    <t>阿拉伯数字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E8%89%AF%E4%B8%89%E4%B8%96</t>
@@ -1271,9 +1259,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E5%8D%81%E5%9B%9B</t>
   </si>
   <si>
@@ -1295,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧地利帝國</t>
+    <t>奥地利帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E6%AC%A1%E5%8F%8D%E6%B3%95%E5%90%8C%E7%9B%9F</t>
@@ -1307,39 +1292,36 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%B3%A2%E7%BE%85%E4%BF%AE</t>
   </si>
   <si>
-    <t>安波羅修</t>
+    <t>安波罗修</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>西歐</t>
+    <t>西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E9%BB%91%E6%9A%97%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>歐洲黑暗時代</t>
+    <t>欧洲黑暗时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8D%A2%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>高卢帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B8%9D%E5%85%B1%E6%B2%BB</t>
   </si>
   <si>
@@ -1349,15 +1331,9 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E8%A5%BF%E7%B1%B3%E5%AE%89</t>
   </si>
   <si>
-    <t>马克西米安</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E6%8F%90%E4%B9%8C%E6%96%AF%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>君士坦提乌斯一世</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BB%B4%E9%B2%81%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
@@ -1397,9 +1373,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%AF%BA%E9%87%8C%E4%B9%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>霍诺里乌斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E4%B8%89%E4%B8%96</t>
   </si>
   <si>
@@ -1463,9 +1436,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%85%95%E8%B7%AF%E6%96%AF%C2%B7%E5%A5%A5%E5%8F%A4%E6%96%AF%E9%83%BD</t>
   </si>
   <si>
-    <t>罗慕路斯·奥古斯都</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD%E7%9A%84%E8%A1%B0%E8%90%BD</t>
   </si>
   <si>
@@ -1475,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B%E8%A1%B0%E4%BA%A1%E5%8F%B2</t>
   </si>
   <si>
-    <t>羅馬帝國衰亡史</t>
+    <t>罗马帝国衰亡史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>羅馬軍事</t>
+    <t>罗马军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E7%9A%84%E5%BB%BA%E7%AB%8B</t>
@@ -1505,19 +1475,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>義大利王國</t>
+    <t>义大利王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%AE%96%E6%B0%91%E5%B8%9D%E5%9B%BD</t>
@@ -1529,9 +1499,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA%E5%89%8D%E6%9C%9F</t>
   </si>
   <si>
@@ -1577,13 +1544,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>維京時期</t>
+    <t>维京时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%95%99%E6%9C%83%E6%96%AF%E6%8B%89%E5%A4%AB%E8%AA%9E</t>
   </si>
   <si>
-    <t>古教會斯拉夫語</t>
+    <t>古教会斯拉夫语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BE%85%E7%BD%97%E6%96%AF</t>
@@ -1595,15 +1562,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E4%B8%AD%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀中期</t>
+    <t>中世纪中期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>神圣罗马帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9A%E7%AC%AC%E4%BA%8C%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
@@ -1613,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%A5%BF%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>東西教會大分裂</t>
+    <t>东西教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E4%BB%BB%E6%9D%83%E6%96%97%E4%BA%89</t>
@@ -1631,13 +1595,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E5%A4%B1%E5%9C%B0%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>收復失地運動</t>
+    <t>收复失地运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E5%AD%97%E8%BB%8D%E6%9D%B1%E5%BE%81</t>
   </si>
   <si>
-    <t>十字軍東征</t>
+    <t>十字军东征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E9%99%A2%E5%93%B2%E5%AD%A6</t>
@@ -1661,13 +1625,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E6%BA%AB%E6%9A%96%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀溫暖時期</t>
+    <t>中世纪温暖时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%BE%8C%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀後期</t>
+    <t>中世纪后期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E5%B9%B4%E6%88%98%E4%BA%89</t>
@@ -1691,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%89%AE%E7%AC%AC%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>勃艮第公國</t>
+    <t>勃艮第公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
@@ -1703,7 +1667,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83%E5%A4%A7%E5%88%86%E8%A3%82</t>
   </si>
   <si>
-    <t>天主教會大分裂</t>
+    <t>天主教会大分裂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E5%A0%A1%E7%9A%84%E9%99%B7%E8%90%BD</t>
@@ -1715,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B%E7%9A%84%E5%B4%9B%E8%B5%B7</t>
   </si>
   <si>
-    <t>奧斯曼帝國的崛起</t>
+    <t>奥斯曼帝国的崛起</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%BF%91%E5%8D%AB%E9%98%9F</t>
@@ -1733,13 +1697,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E4%BA%BA%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文藝復興人文主義</t>
+    <t>文艺复兴人文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀大學</t>
+    <t>中世纪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%86%B0%E6%9C%9F</t>
@@ -1757,25 +1721,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>中世紀飲食</t>
+    <t>中世纪饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>中世紀音樂</t>
+    <t>中世纪音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀哲學</t>
+    <t>中世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E7%BE%8E%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀美學</t>
+    <t>中世纪美学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA%E6%88%98%E4%BA%89</t>
@@ -3704,7 +3668,7 @@
         <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3730,10 +3694,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3759,10 +3723,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
         <v>5</v>
@@ -3788,10 +3752,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>9</v>
@@ -3817,10 +3781,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3846,10 +3810,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -3875,10 +3839,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>10</v>
@@ -3904,10 +3868,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3933,10 +3897,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G62" t="n">
         <v>13</v>
@@ -3962,10 +3926,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3991,10 +3955,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4020,10 +3984,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4049,10 +4013,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4078,10 +4042,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G67" t="n">
         <v>6</v>
@@ -4107,10 +4071,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4136,10 +4100,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4165,10 +4129,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4194,10 +4158,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -4223,10 +4187,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4252,10 +4216,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4281,10 +4245,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4310,10 +4274,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4339,10 +4303,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -4368,10 +4332,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4397,10 +4361,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4426,10 +4390,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4455,10 +4419,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4484,10 +4448,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4513,10 +4477,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4542,10 +4506,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4571,10 +4535,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4600,10 +4564,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4629,10 +4593,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4658,10 +4622,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G87" t="n">
         <v>18</v>
@@ -4687,10 +4651,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -4716,10 +4680,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G89" t="n">
         <v>17</v>
@@ -4745,10 +4709,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G90" t="n">
         <v>7</v>
@@ -4774,10 +4738,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4803,10 +4767,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G92" t="n">
         <v>5</v>
@@ -4832,10 +4796,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -4861,10 +4825,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4890,10 +4854,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4919,10 +4883,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4948,10 +4912,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4977,10 +4941,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5006,10 +4970,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5035,10 +4999,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5064,10 +5028,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5093,10 +5057,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -5122,10 +5086,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -5151,10 +5115,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5209,10 +5173,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5238,10 +5202,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G107" t="n">
         <v>9</v>
@@ -5267,10 +5231,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5296,10 +5260,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5325,10 +5289,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -5354,10 +5318,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5383,10 +5347,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5412,10 +5376,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5441,10 +5405,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G114" t="n">
         <v>6</v>
@@ -5470,10 +5434,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5499,10 +5463,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5528,10 +5492,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5557,10 +5521,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -5586,10 +5550,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -5615,10 +5579,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5644,10 +5608,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5673,10 +5637,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>6</v>
@@ -5702,10 +5666,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5731,10 +5695,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5760,10 +5724,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5789,10 +5753,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5818,10 +5782,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5847,10 +5811,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5876,10 +5840,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5905,10 +5869,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -5934,10 +5898,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5963,10 +5927,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5992,10 +5956,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G133" t="n">
         <v>10</v>
@@ -6021,10 +5985,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6050,10 +6014,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6079,10 +6043,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -6108,10 +6072,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6137,10 +6101,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6166,10 +6130,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6195,10 +6159,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6224,10 +6188,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6253,10 +6217,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -6282,10 +6246,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6311,10 +6275,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -6340,10 +6304,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6369,10 +6333,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G146" t="n">
         <v>23</v>
@@ -6398,10 +6362,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6427,10 +6391,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6456,10 +6420,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6485,10 +6449,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G150" t="n">
         <v>8</v>
@@ -6514,10 +6478,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6543,10 +6507,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -6572,10 +6536,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F153" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G153" t="n">
         <v>11</v>
@@ -6601,10 +6565,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6630,10 +6594,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6659,10 +6623,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6688,10 +6652,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>18</v>
@@ -6717,10 +6681,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6746,10 +6710,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>5</v>
@@ -6775,10 +6739,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>8</v>
@@ -6804,10 +6768,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6833,10 +6797,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>7</v>
@@ -6862,10 +6826,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6891,10 +6855,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>6</v>
@@ -6920,10 +6884,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6949,10 +6913,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F166" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6978,10 +6942,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7007,10 +6971,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7036,10 +7000,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7065,10 +7029,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7094,10 +7058,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7123,10 +7087,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7152,10 +7116,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7181,10 +7145,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -7210,10 +7174,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G175" t="n">
         <v>5</v>
@@ -7239,10 +7203,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7268,10 +7232,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>62</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7297,10 +7261,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>8</v>
@@ -7326,10 +7290,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7355,10 +7319,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7384,10 +7348,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>5</v>
@@ -7413,10 +7377,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7442,10 +7406,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7471,10 +7435,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7500,10 +7464,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7529,10 +7493,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7558,10 +7522,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7587,10 +7551,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7616,10 +7580,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7645,10 +7609,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>6</v>
@@ -7674,10 +7638,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -7703,10 +7667,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7732,10 +7696,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>8</v>
@@ -7761,10 +7725,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7790,10 +7754,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7819,10 +7783,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7848,10 +7812,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7877,10 +7841,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7906,10 +7870,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7935,10 +7899,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7964,10 +7928,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7993,10 +7957,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8022,10 +7986,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8051,10 +8015,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8080,10 +8044,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8109,10 +8073,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8138,10 +8102,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8167,10 +8131,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8196,10 +8160,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8225,10 +8189,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8254,10 +8218,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8283,10 +8247,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8312,10 +8276,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8341,10 +8305,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8370,10 +8334,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>11</v>
@@ -8399,10 +8363,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8428,10 +8392,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8457,10 +8421,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>52</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8486,10 +8450,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8515,10 +8479,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G220" t="n">
         <v>174</v>
@@ -8544,10 +8508,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8573,10 +8537,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8602,10 +8566,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8631,10 +8595,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8660,10 +8624,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8689,10 +8653,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8718,10 +8682,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G227" t="n">
         <v>14</v>
@@ -8747,10 +8711,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -8776,10 +8740,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>243</v>
       </c>
       <c r="G229" t="n">
         <v>6</v>
@@ -8805,10 +8769,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F230" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -8834,10 +8798,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G231" t="n">
         <v>14</v>
@@ -8863,10 +8827,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>171</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8892,10 +8856,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>261</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8921,10 +8885,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8950,10 +8914,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8979,10 +8943,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9008,10 +8972,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F237" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9037,10 +9001,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9066,10 +9030,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9095,10 +9059,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9124,10 +9088,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9153,10 +9117,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9182,10 +9146,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9211,10 +9175,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9240,10 +9204,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F245" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9269,10 +9233,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F246" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9298,10 +9262,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F247" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9327,10 +9291,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9356,10 +9320,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F249" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9385,10 +9349,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F250" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9414,10 +9378,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F251" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9443,10 +9407,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F252" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9472,10 +9436,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F253" t="s">
-        <v>482</v>
+        <v>30</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9501,10 +9465,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F254" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9530,10 +9494,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F255" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9559,10 +9523,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F256" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9588,10 +9552,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F257" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9675,10 +9639,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F260" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9704,10 +9668,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F261" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9733,10 +9697,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F262" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9762,10 +9726,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F263" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9791,10 +9755,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F264" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9820,10 +9784,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F265" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9849,10 +9813,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F266" t="s">
-        <v>504</v>
+        <v>431</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -9878,10 +9842,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="F267" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9907,10 +9871,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9936,10 +9900,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F269" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -9965,10 +9929,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F270" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9994,10 +9958,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F271" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10023,10 +9987,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="F272" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10052,10 +10016,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F273" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10081,10 +10045,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="F274" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10110,10 +10074,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F275" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10139,10 +10103,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F276" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10168,10 +10132,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="F277" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10197,10 +10161,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="F278" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10255,10 +10219,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="F280" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10284,10 +10248,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="F281" t="s">
-        <v>528</v>
+        <v>122</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10313,10 +10277,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F282" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10342,10 +10306,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F283" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10371,10 +10335,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="F284" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10400,10 +10364,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F285" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10429,10 +10393,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F286" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10458,10 +10422,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F287" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10487,10 +10451,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F288" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10516,10 +10480,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F289" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10545,10 +10509,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F290" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10574,10 +10538,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F291" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10603,10 +10567,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F292" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10632,10 +10596,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F293" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10661,10 +10625,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F294" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10690,10 +10654,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F295" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10719,10 +10683,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F296" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10748,10 +10712,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="F297" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10777,10 +10741,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F298" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10806,10 +10770,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="F299" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10835,10 +10799,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="F300" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10864,10 +10828,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="F301" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10893,10 +10857,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F302" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10922,10 +10886,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F303" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10951,10 +10915,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F304" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10980,10 +10944,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F305" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11009,10 +10973,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F306" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11038,10 +11002,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F307" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11067,10 +11031,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F308" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11096,10 +11060,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="F309" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11125,10 +11089,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="F310" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11154,10 +11118,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="F311" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G311" t="n">
         <v>6</v>
@@ -11183,10 +11147,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="F312" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11212,10 +11176,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F313" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G313" t="n">
         <v>13</v>
@@ -11241,10 +11205,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="F314" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>

--- a/xlsx/西罗马帝国_intext.xlsx
+++ b/xlsx/西罗马帝国_intext.xlsx
@@ -29,7 +29,7 @@
     <t>羅馬帝國</t>
   </si>
   <si>
-    <t>政策_政策_政治_西罗马帝国</t>
+    <t>体育运动_体育运动_古罗马_西罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80</t>
